--- a/app/www/DetailsTrcs_en.xlsx
+++ b/app/www/DetailsTrcs_en.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabrice/Codes/DYPOP/app/www/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e64653\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC436CC4-01AA-344C-AAA2-504DDB4B378E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="460" windowWidth="28620" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="460" windowWidth="28620" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="RecapSta" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="120">
   <si>
     <t>Adour</t>
   </si>
@@ -136,12 +135,6 @@
     <t>OUE3</t>
   </si>
   <si>
-    <t>Influence</t>
-  </si>
-  <si>
-    <t>TCC</t>
-  </si>
-  <si>
     <t>Bes</t>
   </si>
   <si>
@@ -283,9 +276,6 @@
     <t>Moulin de Kerloc'h</t>
   </si>
   <si>
-    <t>Altitude</t>
-  </si>
-  <si>
     <t>X (WSG84)</t>
   </si>
   <si>
@@ -331,30 +321,6 @@
     <t>EDF</t>
   </si>
   <si>
-    <t>AFB</t>
-  </si>
-  <si>
-    <t>EDF/Irstea</t>
-  </si>
-  <si>
-    <t>Station name</t>
-  </si>
-  <si>
-    <t>Station code</t>
-  </si>
-  <si>
-    <t>Watercourse</t>
-  </si>
-  <si>
-    <t>Fishing owner</t>
-  </si>
-  <si>
-    <t>Slope</t>
-  </si>
-  <si>
-    <t>Distance to source (m)</t>
-  </si>
-  <si>
     <t>Watershed surface (km²)</t>
   </si>
   <si>
@@ -371,17 +337,62 @@
   </si>
   <si>
     <t>Median water temperature (°C)</t>
+  </si>
+  <si>
+    <t>Reach name</t>
+  </si>
+  <si>
+    <t>Reach code</t>
+  </si>
+  <si>
+    <t>River</t>
+  </si>
+  <si>
+    <t>Hydrological influence</t>
+  </si>
+  <si>
+    <t>BPS</t>
+  </si>
+  <si>
+    <t>Bypassed section</t>
+  </si>
+  <si>
+    <t>Unregulated reach</t>
+  </si>
+  <si>
+    <t>Fish data owner</t>
+  </si>
+  <si>
+    <t>OFB</t>
+  </si>
+  <si>
+    <t>EDF/INRAE</t>
+  </si>
+  <si>
+    <t>Distance from source (m)</t>
+  </si>
+  <si>
+    <t>Elevation (m)</t>
+  </si>
+  <si>
+    <t>Reach slope (%)</t>
+  </si>
+  <si>
+    <t>Q50</t>
+  </si>
+  <si>
+    <t>Median discharge</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -565,6 +576,12 @@
       <b/>
       <sz val="10"/>
       <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1281,7 +1298,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1494,6 +1511,13 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="175">
@@ -1524,144 +1548,144 @@
     <cellStyle name="Avertissement" xfId="62" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Calcul" xfId="59" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Cellule liée" xfId="60" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Commentaire 2" xfId="128" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Commentaire" xfId="63" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Commentaire 2" xfId="128"/>
     <cellStyle name="Entrée" xfId="57" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Insatisfaisant" xfId="55" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutre" xfId="56" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="33" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="Normal 11" xfId="34" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="Normal 12" xfId="35" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="Normal 13" xfId="37" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="Normal 14" xfId="38" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="Normal 15" xfId="94" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="Normal 16" xfId="39" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="Normal 17" xfId="40" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="Normal 18" xfId="41" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="Normal 19" xfId="96" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="Normal 19 2" xfId="105" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="Normal 2" xfId="5" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="Normal 2 10" xfId="29" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="Normal 2 11" xfId="91" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="Normal 2 11 2" xfId="129" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="Normal 2 12" xfId="93" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="Normal 2 13" xfId="95" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="Normal 2 14" xfId="97" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="Normal 2 15" xfId="99" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="Normal 2 16" xfId="101" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="Normal 2 17" xfId="103" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="Normal 2 18" xfId="106" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="Normal 2 19" xfId="111" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="Normal 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="Normal 2 2 10" xfId="148" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="Normal 2 2 11" xfId="152" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="Normal 2 2 12" xfId="156" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="Normal 2 2 13" xfId="160" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="Normal 2 2 14" xfId="164" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="Normal 2 2 15" xfId="168" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="Normal 2 2 16" xfId="172" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="Normal 2 2 2" xfId="90" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="Normal 2 2 3" xfId="107" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="Normal 2 2 4" xfId="114" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="Normal 2 2 5" xfId="131" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="Normal 2 2 6" xfId="133" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
-    <cellStyle name="Normal 2 2 7" xfId="136" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="Normal 2 2 8" xfId="140" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="Normal 2 2 9" xfId="144" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="Normal 2 20" xfId="110" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
-    <cellStyle name="Normal 2 21" xfId="130" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
-    <cellStyle name="Normal 2 22" xfId="132" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
-    <cellStyle name="Normal 2 23" xfId="135" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="Normal 2 24" xfId="139" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="Normal 2 25" xfId="143" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="Normal 2 26" xfId="147" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="Normal 2 27" xfId="151" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="Normal 2 28" xfId="155" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="Normal 2 29" xfId="159" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="Normal 2 3 10" xfId="145" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="Normal 2 3 11" xfId="149" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="Normal 2 3 12" xfId="153" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="Normal 2 3 13" xfId="157" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="Normal 2 3 14" xfId="161" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="Normal 2 3 15" xfId="165" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="Normal 2 3 16" xfId="169" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
-    <cellStyle name="Normal 2 3 17" xfId="173" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
-    <cellStyle name="Normal 2 3 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
-    <cellStyle name="Normal 2 3 2 2" xfId="17" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="Normal 2 3 2 2 2" xfId="120" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="Normal 2 3 3" xfId="21" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
-    <cellStyle name="Normal 2 3 3 2" xfId="122" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="Normal 2 3 4" xfId="25" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="Normal 2 3 4 2" xfId="124" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="Normal 2 3 5" xfId="32" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
-    <cellStyle name="Normal 2 3 5 2" xfId="127" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
-    <cellStyle name="Normal 2 3 6" xfId="112" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
-    <cellStyle name="Normal 2 3 7" xfId="134" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
-    <cellStyle name="Normal 2 3 8" xfId="137" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
-    <cellStyle name="Normal 2 3 9" xfId="141" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="Normal 2 30" xfId="163" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
-    <cellStyle name="Normal 2 31" xfId="167" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
-    <cellStyle name="Normal 2 32" xfId="171" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
-    <cellStyle name="Normal 2 4" xfId="4" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
-    <cellStyle name="Normal 2 4 10" xfId="166" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
-    <cellStyle name="Normal 2 4 11" xfId="170" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
-    <cellStyle name="Normal 2 4 12" xfId="174" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
-    <cellStyle name="Normal 2 4 2" xfId="113" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
-    <cellStyle name="Normal 2 4 3" xfId="138" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
-    <cellStyle name="Normal 2 4 4" xfId="142" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
-    <cellStyle name="Normal 2 4 5" xfId="146" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
-    <cellStyle name="Normal 2 4 6" xfId="150" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
-    <cellStyle name="Normal 2 4 7" xfId="154" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
-    <cellStyle name="Normal 2 4 8" xfId="158" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
-    <cellStyle name="Normal 2 4 9" xfId="162" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
-    <cellStyle name="Normal 2 5" xfId="8" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
-    <cellStyle name="Normal 2 5 2" xfId="116" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
-    <cellStyle name="Normal 2 6" xfId="11" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
-    <cellStyle name="Normal 2 6 2" xfId="117" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
-    <cellStyle name="Normal 2 7" xfId="12" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
-    <cellStyle name="Normal 2 7 2" xfId="118" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
-    <cellStyle name="Normal 2 8" xfId="14" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
-    <cellStyle name="Normal 2 8 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
-    <cellStyle name="Normal 2 8 3" xfId="119" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
-    <cellStyle name="Normal 2 9" xfId="27" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
-    <cellStyle name="Normal 20" xfId="42" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
-    <cellStyle name="Normal 21" xfId="98" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
-    <cellStyle name="Normal 22" xfId="43" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
-    <cellStyle name="Normal 23" xfId="44" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
-    <cellStyle name="Normal 24" xfId="45" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
-    <cellStyle name="Normal 25" xfId="46" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
-    <cellStyle name="Normal 26" xfId="47" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
-    <cellStyle name="Normal 27" xfId="100" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
-    <cellStyle name="Normal 28" xfId="102" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
-    <cellStyle name="Normal 29" xfId="104" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
-    <cellStyle name="Normal 3 2" xfId="6" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
-    <cellStyle name="Normal 3 2 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
-    <cellStyle name="Normal 3 2 2 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
-    <cellStyle name="Normal 3 2 2 2 2" xfId="121" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
-    <cellStyle name="Normal 3 2 3" xfId="23" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
-    <cellStyle name="Normal 3 2 3 2" xfId="123" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
-    <cellStyle name="Normal 3 2 4" xfId="28" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
-    <cellStyle name="Normal 3 2 4 2" xfId="126" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
-    <cellStyle name="Normal 3 2 5" xfId="26" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
-    <cellStyle name="Normal 3 2 5 2" xfId="125" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
-    <cellStyle name="Normal 3 2 6" xfId="115" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
-    <cellStyle name="Normal 3 3" xfId="15" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
-    <cellStyle name="Normal 3 3 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
-    <cellStyle name="Normal 3 4" xfId="24" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
-    <cellStyle name="Normal 3 5" xfId="30" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
-    <cellStyle name="Normal 30" xfId="108" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
-    <cellStyle name="Normal 4" xfId="9" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
-    <cellStyle name="Normal 5" xfId="7" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
-    <cellStyle name="Normal 6" xfId="10" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
-    <cellStyle name="Normal 7" xfId="92" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
-    <cellStyle name="Normal 8" xfId="36" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
-    <cellStyle name="Normal 9" xfId="13" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
-    <cellStyle name="Normal 9 2" xfId="31" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
-    <cellStyle name="Normal 9 3" xfId="109" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
-    <cellStyle name="Normal_Feuil1" xfId="48" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
-    <cellStyle name="Note" xfId="63" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Normal 10" xfId="33"/>
+    <cellStyle name="Normal 11" xfId="34"/>
+    <cellStyle name="Normal 12" xfId="35"/>
+    <cellStyle name="Normal 13" xfId="37"/>
+    <cellStyle name="Normal 14" xfId="38"/>
+    <cellStyle name="Normal 15" xfId="94"/>
+    <cellStyle name="Normal 16" xfId="39"/>
+    <cellStyle name="Normal 17" xfId="40"/>
+    <cellStyle name="Normal 18" xfId="41"/>
+    <cellStyle name="Normal 19" xfId="96"/>
+    <cellStyle name="Normal 19 2" xfId="105"/>
+    <cellStyle name="Normal 2" xfId="5"/>
+    <cellStyle name="Normal 2 10" xfId="29"/>
+    <cellStyle name="Normal 2 11" xfId="91"/>
+    <cellStyle name="Normal 2 11 2" xfId="129"/>
+    <cellStyle name="Normal 2 12" xfId="93"/>
+    <cellStyle name="Normal 2 13" xfId="95"/>
+    <cellStyle name="Normal 2 14" xfId="97"/>
+    <cellStyle name="Normal 2 15" xfId="99"/>
+    <cellStyle name="Normal 2 16" xfId="101"/>
+    <cellStyle name="Normal 2 17" xfId="103"/>
+    <cellStyle name="Normal 2 18" xfId="106"/>
+    <cellStyle name="Normal 2 19" xfId="111"/>
+    <cellStyle name="Normal 2 2" xfId="1"/>
+    <cellStyle name="Normal 2 2 10" xfId="148"/>
+    <cellStyle name="Normal 2 2 11" xfId="152"/>
+    <cellStyle name="Normal 2 2 12" xfId="156"/>
+    <cellStyle name="Normal 2 2 13" xfId="160"/>
+    <cellStyle name="Normal 2 2 14" xfId="164"/>
+    <cellStyle name="Normal 2 2 15" xfId="168"/>
+    <cellStyle name="Normal 2 2 16" xfId="172"/>
+    <cellStyle name="Normal 2 2 2" xfId="90"/>
+    <cellStyle name="Normal 2 2 3" xfId="107"/>
+    <cellStyle name="Normal 2 2 4" xfId="114"/>
+    <cellStyle name="Normal 2 2 5" xfId="131"/>
+    <cellStyle name="Normal 2 2 6" xfId="133"/>
+    <cellStyle name="Normal 2 2 7" xfId="136"/>
+    <cellStyle name="Normal 2 2 8" xfId="140"/>
+    <cellStyle name="Normal 2 2 9" xfId="144"/>
+    <cellStyle name="Normal 2 20" xfId="110"/>
+    <cellStyle name="Normal 2 21" xfId="130"/>
+    <cellStyle name="Normal 2 22" xfId="132"/>
+    <cellStyle name="Normal 2 23" xfId="135"/>
+    <cellStyle name="Normal 2 24" xfId="139"/>
+    <cellStyle name="Normal 2 25" xfId="143"/>
+    <cellStyle name="Normal 2 26" xfId="147"/>
+    <cellStyle name="Normal 2 27" xfId="151"/>
+    <cellStyle name="Normal 2 28" xfId="155"/>
+    <cellStyle name="Normal 2 29" xfId="159"/>
+    <cellStyle name="Normal 2 3" xfId="3"/>
+    <cellStyle name="Normal 2 3 10" xfId="145"/>
+    <cellStyle name="Normal 2 3 11" xfId="149"/>
+    <cellStyle name="Normal 2 3 12" xfId="153"/>
+    <cellStyle name="Normal 2 3 13" xfId="157"/>
+    <cellStyle name="Normal 2 3 14" xfId="161"/>
+    <cellStyle name="Normal 2 3 15" xfId="165"/>
+    <cellStyle name="Normal 2 3 16" xfId="169"/>
+    <cellStyle name="Normal 2 3 17" xfId="173"/>
+    <cellStyle name="Normal 2 3 2" xfId="18"/>
+    <cellStyle name="Normal 2 3 2 2" xfId="17"/>
+    <cellStyle name="Normal 2 3 2 2 2" xfId="120"/>
+    <cellStyle name="Normal 2 3 3" xfId="21"/>
+    <cellStyle name="Normal 2 3 3 2" xfId="122"/>
+    <cellStyle name="Normal 2 3 4" xfId="25"/>
+    <cellStyle name="Normal 2 3 4 2" xfId="124"/>
+    <cellStyle name="Normal 2 3 5" xfId="32"/>
+    <cellStyle name="Normal 2 3 5 2" xfId="127"/>
+    <cellStyle name="Normal 2 3 6" xfId="112"/>
+    <cellStyle name="Normal 2 3 7" xfId="134"/>
+    <cellStyle name="Normal 2 3 8" xfId="137"/>
+    <cellStyle name="Normal 2 3 9" xfId="141"/>
+    <cellStyle name="Normal 2 30" xfId="163"/>
+    <cellStyle name="Normal 2 31" xfId="167"/>
+    <cellStyle name="Normal 2 32" xfId="171"/>
+    <cellStyle name="Normal 2 4" xfId="4"/>
+    <cellStyle name="Normal 2 4 10" xfId="166"/>
+    <cellStyle name="Normal 2 4 11" xfId="170"/>
+    <cellStyle name="Normal 2 4 12" xfId="174"/>
+    <cellStyle name="Normal 2 4 2" xfId="113"/>
+    <cellStyle name="Normal 2 4 3" xfId="138"/>
+    <cellStyle name="Normal 2 4 4" xfId="142"/>
+    <cellStyle name="Normal 2 4 5" xfId="146"/>
+    <cellStyle name="Normal 2 4 6" xfId="150"/>
+    <cellStyle name="Normal 2 4 7" xfId="154"/>
+    <cellStyle name="Normal 2 4 8" xfId="158"/>
+    <cellStyle name="Normal 2 4 9" xfId="162"/>
+    <cellStyle name="Normal 2 5" xfId="8"/>
+    <cellStyle name="Normal 2 5 2" xfId="116"/>
+    <cellStyle name="Normal 2 6" xfId="11"/>
+    <cellStyle name="Normal 2 6 2" xfId="117"/>
+    <cellStyle name="Normal 2 7" xfId="12"/>
+    <cellStyle name="Normal 2 7 2" xfId="118"/>
+    <cellStyle name="Normal 2 8" xfId="14"/>
+    <cellStyle name="Normal 2 8 2" xfId="22"/>
+    <cellStyle name="Normal 2 8 3" xfId="119"/>
+    <cellStyle name="Normal 2 9" xfId="27"/>
+    <cellStyle name="Normal 20" xfId="42"/>
+    <cellStyle name="Normal 21" xfId="98"/>
+    <cellStyle name="Normal 22" xfId="43"/>
+    <cellStyle name="Normal 23" xfId="44"/>
+    <cellStyle name="Normal 24" xfId="45"/>
+    <cellStyle name="Normal 25" xfId="46"/>
+    <cellStyle name="Normal 26" xfId="47"/>
+    <cellStyle name="Normal 27" xfId="100"/>
+    <cellStyle name="Normal 28" xfId="102"/>
+    <cellStyle name="Normal 29" xfId="104"/>
+    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 3 2" xfId="6"/>
+    <cellStyle name="Normal 3 2 2" xfId="16"/>
+    <cellStyle name="Normal 3 2 2 2" xfId="19"/>
+    <cellStyle name="Normal 3 2 2 2 2" xfId="121"/>
+    <cellStyle name="Normal 3 2 3" xfId="23"/>
+    <cellStyle name="Normal 3 2 3 2" xfId="123"/>
+    <cellStyle name="Normal 3 2 4" xfId="28"/>
+    <cellStyle name="Normal 3 2 4 2" xfId="126"/>
+    <cellStyle name="Normal 3 2 5" xfId="26"/>
+    <cellStyle name="Normal 3 2 5 2" xfId="125"/>
+    <cellStyle name="Normal 3 2 6" xfId="115"/>
+    <cellStyle name="Normal 3 3" xfId="15"/>
+    <cellStyle name="Normal 3 3 2" xfId="20"/>
+    <cellStyle name="Normal 3 4" xfId="24"/>
+    <cellStyle name="Normal 3 5" xfId="30"/>
+    <cellStyle name="Normal 30" xfId="108"/>
+    <cellStyle name="Normal 4" xfId="9"/>
+    <cellStyle name="Normal 5" xfId="7"/>
+    <cellStyle name="Normal 6" xfId="10"/>
+    <cellStyle name="Normal 7" xfId="92"/>
+    <cellStyle name="Normal 8" xfId="36"/>
+    <cellStyle name="Normal 9" xfId="13"/>
+    <cellStyle name="Normal 9 2" xfId="31"/>
+    <cellStyle name="Normal 9 3" xfId="109"/>
+    <cellStyle name="Normal_Feuil1" xfId="48"/>
     <cellStyle name="Satisfaisant" xfId="54" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Sortie" xfId="58" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texte explicatif" xfId="64" builtinId="53" customBuiltin="1"/>
@@ -1762,23 +1786,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1814,23 +1821,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2006,90 +1996,89 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.83203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="16.1640625" style="5" customWidth="1"/>
-    <col min="16" max="16" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="11.5" style="1"/>
+    <col min="1" max="1" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.81640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.36328125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.1796875" style="5" customWidth="1"/>
+    <col min="16" max="17" width="15.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="11.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="62" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="L1" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="M1" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="N1" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="O1" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q1" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" s="68" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="62" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="G1" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="H1" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="I1" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="J1" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="K1" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="L1" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="M1" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="N1" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="O1" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="P1" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q1" s="44" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>1</v>
@@ -2098,10 +2087,10 @@
         <v>0</v>
       </c>
       <c r="D2" s="69" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="E2" s="72" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F2" s="46">
         <v>0.20877999999999999</v>
@@ -2140,9 +2129,9 @@
         <v>8.68</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>2</v>
@@ -2151,10 +2140,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="70" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="E3" s="73" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F3" s="48">
         <v>0.21137707444152901</v>
@@ -2193,9 +2182,9 @@
         <v>7.08</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>3</v>
@@ -2204,10 +2193,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="70" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E4" s="73" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F4" s="50">
         <v>0.27338000000000001</v>
@@ -2246,9 +2235,9 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>4</v>
@@ -2257,10 +2246,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="70" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="E5" s="73" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F5" s="50">
         <v>0.24490999999999999</v>
@@ -2299,9 +2288,9 @@
         <v>8.5500000000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>5</v>
@@ -2310,10 +2299,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="70" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="E6" s="73" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F6" s="50">
         <v>0.23211999999999999</v>
@@ -2352,9 +2341,9 @@
         <v>8.5500000000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>6</v>
@@ -2363,10 +2352,10 @@
         <v>0</v>
       </c>
       <c r="D7" s="70" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="E7" s="73" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F7" s="48">
         <v>0.202174876064106</v>
@@ -2405,7 +2394,7 @@
         <v>5.78</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
         <v>16</v>
       </c>
@@ -2416,10 +2405,10 @@
         <v>15</v>
       </c>
       <c r="D8" s="70" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="E8" s="73" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F8" s="48">
         <v>2.2012116596326101</v>
@@ -2458,21 +2447,21 @@
         <v>9.25</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="70" t="s">
-        <v>41</v>
-      </c>
       <c r="E9" s="74" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="F9" s="48">
         <v>6.26048470718366</v>
@@ -2511,21 +2500,21 @@
         <v>7.67</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D10" s="70" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E10" s="74" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="F10" s="48">
         <v>3.7392176452744299</v>
@@ -2564,7 +2553,7 @@
         <v>8.69</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
         <v>19</v>
       </c>
@@ -2572,13 +2561,13 @@
         <v>20</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D11" s="70" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="E11" s="73" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F11" s="48">
         <v>0.36322885131579202</v>
@@ -2617,7 +2606,7 @@
         <v>9.24</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="16" t="s">
         <v>21</v>
       </c>
@@ -2625,13 +2614,13 @@
         <v>22</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D12" s="70" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="E12" s="73" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F12" s="48">
         <v>0.37168000531948597</v>
@@ -2670,21 +2659,21 @@
         <v>9.24</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D13" s="70" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="E13" s="73" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F13" s="48">
         <v>0.37632812151341599</v>
@@ -2723,21 +2712,21 @@
         <v>9.24</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="26" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D14" s="70" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E14" s="65" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="F14" s="48">
         <v>3.7049894831450798</v>
@@ -2776,21 +2765,21 @@
         <v>7.71</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="25" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D15" s="70" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E15" s="64" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="F15" s="48">
         <v>6.6794130000000003</v>
@@ -2829,21 +2818,21 @@
         <v>5.79</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D16" s="70" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E16" s="64" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="F16" s="48">
         <v>3.0015874940983598</v>
@@ -2882,21 +2871,21 @@
         <v>8.11</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D17" s="70" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E17" s="64" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="F17" s="48">
         <v>3.4915476095733902</v>
@@ -2935,21 +2924,21 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D18" s="70" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E18" s="65" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="F18" s="48">
         <v>2.927324</v>
@@ -2988,21 +2977,21 @@
         <v>7.76</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D19" s="70" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E19" s="73" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F19" s="50">
         <v>-0.14959</v>
@@ -3041,21 +3030,21 @@
         <v>8.86</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D20" s="70" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="E20" s="73" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F20" s="50">
         <v>-0.13313</v>
@@ -3094,21 +3083,21 @@
         <v>9.39</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D21" s="70" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="E21" s="73" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F21" s="50">
         <v>-0.10481</v>
@@ -3147,21 +3136,21 @@
         <v>9.39</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B22" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D22" s="70" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E22" s="73" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F22" s="50">
         <v>-0.18819</v>
@@ -3200,7 +3189,7 @@
         <v>8.4700000000000006</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="16" t="s">
         <v>11</v>
       </c>
@@ -3208,13 +3197,13 @@
         <v>12</v>
       </c>
       <c r="C23" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="70" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="73" t="s">
         <v>98</v>
-      </c>
-      <c r="D23" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="73" t="s">
-        <v>101</v>
       </c>
       <c r="F23" s="50">
         <v>1.315E-2</v>
@@ -3253,21 +3242,21 @@
         <v>7.61</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B24" s="17" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="73" t="s">
         <v>98</v>
-      </c>
-      <c r="D24" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="73" t="s">
-        <v>101</v>
       </c>
       <c r="F24" s="50">
         <v>1.5E-3</v>
@@ -3306,21 +3295,21 @@
         <v>6.74</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B25" s="17" t="s">
         <v>14</v>
       </c>
       <c r="C25" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="70" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="73" t="s">
         <v>98</v>
-      </c>
-      <c r="D25" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="73" t="s">
-        <v>101</v>
       </c>
       <c r="F25" s="50">
         <v>1.7739999999999999E-2</v>
@@ -3359,7 +3348,7 @@
         <v>7.34</v>
       </c>
     </row>
-    <row r="26" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="16" t="s">
         <v>28</v>
       </c>
@@ -3367,13 +3356,13 @@
         <v>29</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D26" s="70" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E26" s="73" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F26" s="48">
         <v>3.8955778635157001</v>
@@ -3412,21 +3401,21 @@
         <v>7.44</v>
       </c>
     </row>
-    <row r="27" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B27" s="17" t="s">
         <v>30</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D27" s="70" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="E27" s="73" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F27" s="48">
         <v>3.9347471699835399</v>
@@ -3465,7 +3454,7 @@
         <v>8.16</v>
       </c>
     </row>
-    <row r="28" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="16" t="s">
         <v>31</v>
       </c>
@@ -3473,13 +3462,13 @@
         <v>32</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D28" s="70" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="E28" s="73" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F28" s="48">
         <v>3.9715196462772901</v>
@@ -3518,21 +3507,21 @@
         <v>8.01</v>
       </c>
     </row>
-    <row r="29" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D29" s="70" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E29" s="65" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="F29" s="48">
         <v>-4.2188610000000004</v>
@@ -3571,21 +3560,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B30" s="17" t="s">
         <v>33</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D30" s="70" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E30" s="73" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F30" s="50">
         <v>0.51800000000000002</v>
@@ -3624,21 +3613,21 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="31" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B31" s="17" t="s">
         <v>34</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D31" s="70" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E31" s="73" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F31" s="50">
         <v>0.54044999999999999</v>
@@ -3677,7 +3666,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="32" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="16" t="s">
         <v>35</v>
       </c>
@@ -3685,13 +3674,13 @@
         <v>36</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D32" s="70" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E32" s="73" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F32" s="50">
         <v>0.54825999999999997</v>
@@ -3730,21 +3719,21 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="33" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D33" s="70" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E33" s="64" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="F33" s="48">
         <v>2.0385711988576101</v>
@@ -3783,9 +3772,9 @@
         <v>8.5299999999999994</v>
       </c>
     </row>
-    <row r="34" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B34" s="17" t="s">
         <v>25</v>
@@ -3794,10 +3783,10 @@
         <v>24</v>
       </c>
       <c r="D34" s="70" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E34" s="63" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="F34" s="48">
         <v>5.8565719123681799</v>
@@ -3836,7 +3825,7 @@
         <v>8.18</v>
       </c>
     </row>
-    <row r="35" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="16" t="s">
         <v>26</v>
       </c>
@@ -3847,10 +3836,10 @@
         <v>24</v>
       </c>
       <c r="D35" s="70" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="E35" s="63" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="F35" s="48">
         <v>5.8567</v>
@@ -3889,21 +3878,21 @@
         <v>8.2799999999999994</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D36" s="70" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E36" s="64" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="F36" s="48">
         <v>3.6545313373683999</v>
@@ -3942,21 +3931,21 @@
         <v>7.56</v>
       </c>
     </row>
-    <row r="37" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B37" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D37" s="70" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="E37" s="63" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F37" s="50">
         <v>0.30947000000000002</v>
@@ -3995,21 +3984,21 @@
         <v>7.73</v>
       </c>
     </row>
-    <row r="38" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D38" s="70" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E38" s="65" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="F38" s="52">
         <v>-1.4005799999999999</v>
@@ -4048,21 +4037,21 @@
         <v>11.26</v>
       </c>
     </row>
-    <row r="39" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D39" s="70" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E39" s="66" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="F39" s="48">
         <v>2.38447582566116</v>
@@ -4101,21 +4090,21 @@
         <v>6.77</v>
       </c>
     </row>
-    <row r="40" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D40" s="70" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E40" s="65" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="F40" s="48">
         <v>-3.0880700000000001</v>
@@ -4154,21 +4143,21 @@
         <v>11.15</v>
       </c>
     </row>
-    <row r="41" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" s="7" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="32" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C41" s="33" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D41" s="71" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E41" s="67" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="F41" s="54">
         <v>3.5252053654750601</v>
@@ -4205,6 +4194,30 @@
       </c>
       <c r="Q41" s="38">
         <v>6.56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A43" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" s="75" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A44" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="75" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A45" s="77" t="s">
+        <v>118</v>
+      </c>
+      <c r="B45" s="75" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
